--- a/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 12/02. Trả bảo hành/TBH_AnhTuanBG_051225.xlsx
+++ b/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 12/02. Trả bảo hành/TBH_AnhTuanBG_051225.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4. Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 12\02. Trả bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED0150-0E6D-493F-8778-3C07B303B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA2BD5D-5714-4F1E-B16D-3D2D9FCC2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,6 +593,45 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="16"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,45 +663,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1030,8 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1051,77 +1051,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="48" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1129,12 +1129,12 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1142,12 +1142,12 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1155,12 +1155,12 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1201,10 +1201,10 @@
       <c r="A11" s="39">
         <v>1</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="41"/>
@@ -1227,10 +1227,10 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="41"/>
@@ -1253,10 +1253,10 @@
       <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="41"/>
@@ -1279,10 +1279,10 @@
       <c r="A14" s="39">
         <v>4</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="41"/>
@@ -1307,10 +1307,10 @@
       <c r="A15" s="39">
         <v>5</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="48" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="41"/>
@@ -1338,14 +1338,14 @@
       <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="39" t="s">
         <v>51</v>
       </c>
@@ -1364,14 +1364,14 @@
       <c r="B17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="39" t="s">
         <v>51</v>
       </c>
@@ -1390,14 +1390,14 @@
       <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="39" t="s">
         <v>58</v>
       </c>
@@ -1414,14 +1414,14 @@
       <c r="B19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="39" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="B20" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="39" t="s">
@@ -1447,7 +1447,7 @@
       <c r="E20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="46" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="41"/>
@@ -1458,17 +1458,17 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="45">
         <f>SUM(I11:I20)</f>
         <v>660000</v>
       </c>
@@ -1582,10 +1582,10 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,12 +1600,17 @@
       <c r="I31" s="38"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="72" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A6:D6"/>
@@ -1613,11 +1618,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
